--- a/Safe_Results/SA_Locations/SA_Locations_Arizona.xlsx
+++ b/Safe_Results/SA_Locations/SA_Locations_Arizona.xlsx
@@ -521,43 +521,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.4524</v>
+        <v>5.7948</v>
       </c>
       <c r="C2" t="n">
-        <v>13.11765</v>
+        <v>16.33285</v>
       </c>
       <c r="D2" t="n">
-        <v>42.33325000000001</v>
+        <v>34.7531</v>
       </c>
       <c r="E2" t="n">
-        <v>7.883100000000001</v>
+        <v>6.4706</v>
       </c>
       <c r="F2" t="n">
-        <v>2744.41815</v>
+        <v>2702.48335</v>
       </c>
       <c r="G2" t="n">
-        <v>2502.83415</v>
+        <v>2483.29295</v>
       </c>
       <c r="H2" t="n">
-        <v>241.5838</v>
+        <v>219.1905</v>
       </c>
       <c r="I2" t="n">
-        <v>241.5838</v>
+        <v>219.1905</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2786.7014</v>
+        <v>2745.781</v>
       </c>
       <c r="L2" t="n">
-        <v>2502.82</v>
+        <v>2483.296</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8814</v>
+        <v>262.485</v>
       </c>
       <c r="N2" t="n">
-        <v>283.8814</v>
+        <v>262.485</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.498</v>
+        <v>5.831</v>
       </c>
       <c r="C3" t="n">
-        <v>12.883</v>
+        <v>16.482</v>
       </c>
       <c r="D3" t="n">
-        <v>42.408</v>
+        <v>34.876</v>
       </c>
       <c r="E3" t="n">
-        <v>8.683999999999999</v>
+        <v>5.974</v>
       </c>
       <c r="F3" t="n">
-        <v>2762.573</v>
+        <v>2719.272</v>
       </c>
       <c r="G3" t="n">
-        <v>2505.618</v>
+        <v>2490.45</v>
       </c>
       <c r="H3" t="n">
-        <v>256.955</v>
+        <v>228.822</v>
       </c>
       <c r="I3" t="n">
-        <v>256.955</v>
+        <v>228.822</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2787.1376</v>
+        <v>2744.4092</v>
       </c>
       <c r="L3" t="n">
-        <v>2505.614</v>
+        <v>2490.442</v>
       </c>
       <c r="M3" t="n">
-        <v>281.5236</v>
+        <v>253.9672</v>
       </c>
       <c r="N3" t="n">
-        <v>281.5236</v>
+        <v>253.9672</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,43 +619,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.077</v>
+        <v>6.158</v>
       </c>
       <c r="C4" t="n">
-        <v>15.658</v>
+        <v>17.154</v>
       </c>
       <c r="D4" t="n">
-        <v>43.68</v>
+        <v>38.034</v>
       </c>
       <c r="E4" t="n">
-        <v>5.511</v>
+        <v>7.722</v>
       </c>
       <c r="F4" t="n">
-        <v>2965.921</v>
+        <v>2919.128</v>
       </c>
       <c r="G4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="H4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="I4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2817.7894</v>
+        <v>2763.7398</v>
       </c>
       <c r="L4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="M4" t="n">
-        <v>152.2434</v>
+        <v>172.6588</v>
       </c>
       <c r="N4" t="n">
-        <v>152.2434</v>
+        <v>172.6588</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.448600000000001</v>
+        <v>5.78185</v>
       </c>
       <c r="C2" t="n">
-        <v>12.87155</v>
+        <v>16.1637</v>
       </c>
       <c r="D2" t="n">
-        <v>42.30675</v>
+        <v>35.1861</v>
       </c>
       <c r="E2" t="n">
-        <v>7.87035</v>
+        <v>6.3483</v>
       </c>
       <c r="F2" t="n">
-        <v>2730.331150000001</v>
+        <v>2690.3983</v>
       </c>
       <c r="G2" t="n">
-        <v>2492.5926</v>
+        <v>2477.589</v>
       </c>
       <c r="H2" t="n">
-        <v>237.73845</v>
+        <v>212.8093</v>
       </c>
       <c r="I2" t="n">
-        <v>237.73845</v>
+        <v>212.8093</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2845.517</v>
+        <v>2793.0096</v>
       </c>
       <c r="L2" t="n">
-        <v>2492.584</v>
+        <v>2477.597</v>
       </c>
       <c r="M2" t="n">
-        <v>352.933</v>
+        <v>315.4126</v>
       </c>
       <c r="N2" t="n">
-        <v>352.933</v>
+        <v>315.4126</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.513</v>
+        <v>5.81</v>
       </c>
       <c r="C3" t="n">
-        <v>12.798</v>
+        <v>16.468</v>
       </c>
       <c r="D3" t="n">
-        <v>42.498</v>
+        <v>34.432</v>
       </c>
       <c r="E3" t="n">
-        <v>8.002000000000001</v>
+        <v>5.715</v>
       </c>
       <c r="F3" t="n">
-        <v>2748.533</v>
+        <v>2707.623</v>
       </c>
       <c r="G3" t="n">
-        <v>2499.591</v>
+        <v>2482.172</v>
       </c>
       <c r="H3" t="n">
-        <v>248.942</v>
+        <v>225.451</v>
       </c>
       <c r="I3" t="n">
-        <v>248.942</v>
+        <v>225.451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2843.9204</v>
+        <v>2792.2678</v>
       </c>
       <c r="L3" t="n">
-        <v>2499.627</v>
+        <v>2482.193</v>
       </c>
       <c r="M3" t="n">
-        <v>344.2934</v>
+        <v>310.0748</v>
       </c>
       <c r="N3" t="n">
-        <v>344.2934</v>
+        <v>310.0748</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,43 +862,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.767</v>
+        <v>5.983</v>
       </c>
       <c r="C4" t="n">
-        <v>13.933</v>
+        <v>15.185</v>
       </c>
       <c r="D4" t="n">
-        <v>42.688</v>
+        <v>41.485</v>
       </c>
       <c r="E4" t="n">
-        <v>4.074</v>
+        <v>7.372</v>
       </c>
       <c r="F4" t="n">
-        <v>2865.308</v>
+        <v>2864.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2544.812</v>
+        <v>2518.066</v>
       </c>
       <c r="H4" t="n">
-        <v>320.496</v>
+        <v>346.154</v>
       </c>
       <c r="I4" t="n">
-        <v>320.496</v>
+        <v>346.154</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2844.6968</v>
+        <v>2791.2062</v>
       </c>
       <c r="L4" t="n">
-        <v>2544.812</v>
+        <v>2518.066</v>
       </c>
       <c r="M4" t="n">
-        <v>299.8848</v>
+        <v>273.1402</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8848</v>
+        <v>273.1402</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,43 +1007,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.4872</v>
+        <v>5.79305</v>
       </c>
       <c r="C2" t="n">
-        <v>12.84385</v>
+        <v>16.0961</v>
       </c>
       <c r="D2" t="n">
-        <v>44.0861</v>
+        <v>36.1616</v>
       </c>
       <c r="E2" t="n">
-        <v>8.277400000000002</v>
+        <v>6.843549999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>2748.435200000001</v>
+        <v>2709.40465</v>
       </c>
       <c r="G2" t="n">
-        <v>2512.403</v>
+        <v>2487.3154</v>
       </c>
       <c r="H2" t="n">
-        <v>236.032</v>
+        <v>222.08925</v>
       </c>
       <c r="I2" t="n">
-        <v>236.032</v>
+        <v>222.08925</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2762.622199999999</v>
+        <v>2707.3304</v>
       </c>
       <c r="L2" t="n">
-        <v>2512.394</v>
+        <v>2487.323</v>
       </c>
       <c r="M2" t="n">
-        <v>250.2282</v>
+        <v>220.0074</v>
       </c>
       <c r="N2" t="n">
-        <v>250.2282</v>
+        <v>220.0074</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.559</v>
+        <v>5.8</v>
       </c>
       <c r="C3" t="n">
-        <v>12.87</v>
+        <v>16.249</v>
       </c>
       <c r="D3" t="n">
-        <v>44.398</v>
+        <v>36.172</v>
       </c>
       <c r="E3" t="n">
-        <v>8.595000000000001</v>
+        <v>6.657</v>
       </c>
       <c r="F3" t="n">
-        <v>2768.304</v>
+        <v>2728.415</v>
       </c>
       <c r="G3" t="n">
-        <v>2526.478</v>
+        <v>2492.653</v>
       </c>
       <c r="H3" t="n">
-        <v>241.826</v>
+        <v>235.762</v>
       </c>
       <c r="I3" t="n">
-        <v>241.826</v>
+        <v>235.762</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2762.332</v>
+        <v>2707.8842</v>
       </c>
       <c r="L3" t="n">
-        <v>2526.445</v>
+        <v>2492.709</v>
       </c>
       <c r="M3" t="n">
-        <v>235.887</v>
+        <v>215.1752</v>
       </c>
       <c r="N3" t="n">
-        <v>235.887</v>
+        <v>215.1752</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,43 +1105,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.077</v>
+        <v>6.158</v>
       </c>
       <c r="C4" t="n">
-        <v>15.658</v>
+        <v>17.154</v>
       </c>
       <c r="D4" t="n">
-        <v>43.68</v>
+        <v>38.034</v>
       </c>
       <c r="E4" t="n">
-        <v>5.511</v>
+        <v>7.722</v>
       </c>
       <c r="F4" t="n">
-        <v>2965.921</v>
+        <v>2919.128</v>
       </c>
       <c r="G4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="H4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="I4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2801.8106</v>
+        <v>2731.4192</v>
       </c>
       <c r="L4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="M4" t="n">
-        <v>136.2646</v>
+        <v>140.3382</v>
       </c>
       <c r="N4" t="n">
-        <v>136.2646</v>
+        <v>140.3382</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.490799999999998</v>
+        <v>5.84735</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9528</v>
+        <v>16.3438</v>
       </c>
       <c r="D2" t="n">
-        <v>43.1283</v>
+        <v>35.74990000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>7.943299999999999</v>
+        <v>6.2636</v>
       </c>
       <c r="F2" t="n">
-        <v>2761.1887</v>
+        <v>2724.69525</v>
       </c>
       <c r="G2" t="n">
-        <v>2507.337850000001</v>
+        <v>2495.7254</v>
       </c>
       <c r="H2" t="n">
-        <v>253.85065</v>
+        <v>228.9699</v>
       </c>
       <c r="I2" t="n">
-        <v>253.85065</v>
+        <v>228.9699</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2701.7366</v>
+        <v>2650.173</v>
       </c>
       <c r="L2" t="n">
-        <v>2507.322</v>
+        <v>2495.733</v>
       </c>
       <c r="M2" t="n">
-        <v>194.4146</v>
+        <v>154.44</v>
       </c>
       <c r="N2" t="n">
-        <v>194.4146</v>
+        <v>154.44</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.588</v>
+        <v>5.85</v>
       </c>
       <c r="C3" t="n">
-        <v>12.752</v>
+        <v>16.638</v>
       </c>
       <c r="D3" t="n">
-        <v>44.691</v>
+        <v>35.668</v>
       </c>
       <c r="E3" t="n">
-        <v>8.587</v>
+        <v>5.511</v>
       </c>
       <c r="F3" t="n">
-        <v>2782.799</v>
+        <v>2742.579</v>
       </c>
       <c r="G3" t="n">
-        <v>2527.375</v>
+        <v>2501.19</v>
       </c>
       <c r="H3" t="n">
-        <v>255.424</v>
+        <v>241.389</v>
       </c>
       <c r="I3" t="n">
-        <v>255.424</v>
+        <v>241.389</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2704.0834</v>
+        <v>2651.336</v>
       </c>
       <c r="L3" t="n">
-        <v>2527.387</v>
+        <v>2501.135</v>
       </c>
       <c r="M3" t="n">
-        <v>176.6964</v>
+        <v>150.201</v>
       </c>
       <c r="N3" t="n">
-        <v>176.6964</v>
+        <v>150.201</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,43 +1348,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.077</v>
+        <v>6.158</v>
       </c>
       <c r="C4" t="n">
-        <v>15.658</v>
+        <v>17.154</v>
       </c>
       <c r="D4" t="n">
-        <v>43.68</v>
+        <v>38.034</v>
       </c>
       <c r="E4" t="n">
-        <v>5.511</v>
+        <v>7.722</v>
       </c>
       <c r="F4" t="n">
-        <v>2965.921</v>
+        <v>2919.128</v>
       </c>
       <c r="G4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="H4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="I4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2751.0972</v>
+        <v>2683.991</v>
       </c>
       <c r="L4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="M4" t="n">
-        <v>85.55119999999999</v>
+        <v>92.91</v>
       </c>
       <c r="N4" t="n">
-        <v>85.55119999999999</v>
+        <v>92.91</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1493,43 +1493,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.544</v>
+        <v>5.83895</v>
       </c>
       <c r="C2" t="n">
-        <v>13.07835</v>
+        <v>15.90655</v>
       </c>
       <c r="D2" t="n">
-        <v>43.8576</v>
+        <v>37.70010000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>7.40545</v>
+        <v>6.70675</v>
       </c>
       <c r="F2" t="n">
-        <v>2751.4278</v>
+        <v>2706.90085</v>
       </c>
       <c r="G2" t="n">
-        <v>2519.781</v>
+        <v>2495.83625</v>
       </c>
       <c r="H2" t="n">
-        <v>231.6467</v>
+        <v>211.06465</v>
       </c>
       <c r="I2" t="n">
-        <v>231.6467</v>
+        <v>211.06465</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2750.6094</v>
+        <v>2736.444</v>
       </c>
       <c r="L2" t="n">
-        <v>2519.768</v>
+        <v>2495.841</v>
       </c>
       <c r="M2" t="n">
-        <v>230.8414</v>
+        <v>240.603</v>
       </c>
       <c r="N2" t="n">
-        <v>230.8414</v>
+        <v>240.603</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.598</v>
+        <v>5.877</v>
       </c>
       <c r="C3" t="n">
-        <v>12.856</v>
+        <v>16.197</v>
       </c>
       <c r="D3" t="n">
-        <v>44.91</v>
+        <v>36.961</v>
       </c>
       <c r="E3" t="n">
-        <v>8.055</v>
+        <v>5.974</v>
       </c>
       <c r="F3" t="n">
-        <v>2771.008</v>
+        <v>2721.703</v>
       </c>
       <c r="G3" t="n">
-        <v>2530.217</v>
+        <v>2500.363</v>
       </c>
       <c r="H3" t="n">
-        <v>240.79</v>
+        <v>221.34</v>
       </c>
       <c r="I3" t="n">
-        <v>240.79</v>
+        <v>221.34</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2752.1964</v>
+        <v>2736.6242</v>
       </c>
       <c r="L3" t="n">
-        <v>2530.211</v>
+        <v>2500.415</v>
       </c>
       <c r="M3" t="n">
-        <v>221.9854</v>
+        <v>236.2092</v>
       </c>
       <c r="N3" t="n">
-        <v>221.9854</v>
+        <v>236.2092</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,43 +1591,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.077</v>
+        <v>6.158</v>
       </c>
       <c r="C4" t="n">
-        <v>15.658</v>
+        <v>17.154</v>
       </c>
       <c r="D4" t="n">
-        <v>43.68</v>
+        <v>38.034</v>
       </c>
       <c r="E4" t="n">
-        <v>5.511</v>
+        <v>7.722</v>
       </c>
       <c r="F4" t="n">
-        <v>2965.921</v>
+        <v>2919.128</v>
       </c>
       <c r="G4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="H4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="I4" t="n">
-        <v>300.375</v>
+        <v>328.047</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2800.6596</v>
+        <v>2749.1316</v>
       </c>
       <c r="L4" t="n">
-        <v>2665.546</v>
+        <v>2591.081</v>
       </c>
       <c r="M4" t="n">
-        <v>135.1136</v>
+        <v>158.0506</v>
       </c>
       <c r="N4" t="n">
-        <v>135.1136</v>
+        <v>158.0506</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
